--- a/data/trans_bre/P26-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P26-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.812786114527901</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.964031374961288</v>
+        <v>3.964031374961291</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.270123866700804</v>
@@ -649,7 +649,7 @@
         <v>0.140800158336911</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2387733711201692</v>
+        <v>0.2387733711201694</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3192500951973867</v>
+        <v>0.09720042786903506</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.818967408457892</v>
+        <v>-3.638900609396145</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.364019741573235</v>
+        <v>-4.336164383837134</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.994316330434979</v>
+        <v>-3.348451317912231</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.00171607282661445</v>
+        <v>0.003147517845269516</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1150212971196341</v>
+        <v>-0.08905756890118775</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1054086970453436</v>
+        <v>-0.1078656972691273</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1578176508168045</v>
+        <v>-0.165402265037024</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.26089142156903</v>
+        <v>18.94855053223215</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.55815889401093</v>
+        <v>13.43295405764517</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.42983839083772</v>
+        <v>12.28529993764247</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.65581255116063</v>
+        <v>10.83571940001951</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6256214061101376</v>
+        <v>0.6740672057433126</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3613396849008903</v>
+        <v>0.3986509095256477</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4488866498317486</v>
+        <v>0.4060685638536817</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.831914090390533</v>
+        <v>0.8351327034925352</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>9.776674247272402</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.981547316975991</v>
+        <v>2.981547316975985</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3223342796409084</v>
@@ -749,7 +749,7 @@
         <v>0.4222770207584057</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3199433096683653</v>
+        <v>0.3199433096683647</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.714130356062463</v>
+        <v>2.156352381639298</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.769035249689228</v>
+        <v>2.38961193449392</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.034544050739633</v>
+        <v>4.038142563205156</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.284635252806745</v>
+        <v>-2.176013109500286</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06046294205690656</v>
+        <v>0.08162477977494699</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07708547112829493</v>
+        <v>0.06688124580908845</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1447679463504823</v>
+        <v>0.1562550520256379</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1883449000687991</v>
+        <v>-0.1787781408287669</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.10533370834903</v>
+        <v>14.13208699060001</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.50692036216957</v>
+        <v>14.85836641649578</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15.27615571241624</v>
+        <v>15.55526364396203</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.496653809231849</v>
+        <v>7.187860436336402</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6376003978990751</v>
+        <v>0.6317162166879956</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5305028210028802</v>
+        <v>0.5102161705553859</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7460099964183907</v>
+        <v>0.7329959576824073</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.171056898520357</v>
+        <v>1.136687367781481</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-4.758853833199375</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.345930998392674</v>
+        <v>7.345930998392673</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4088607343252816</v>
@@ -849,7 +849,7 @@
         <v>-0.2628696244588735</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.9309717318096615</v>
+        <v>0.9309717318096612</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.224593898082015</v>
+        <v>3.88015226117431</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.818577945212042</v>
+        <v>-7.003438074307278</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.08752063543267</v>
+        <v>-10.12858429734639</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.437477155721559</v>
+        <v>2.685923301931085</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1028312264307935</v>
+        <v>0.1242991236802982</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1979975244909849</v>
+        <v>-0.1849611358678834</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4883137269931297</v>
+        <v>-0.4872150839869944</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2103575065407401</v>
+        <v>0.2282630612732906</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.79491977674023</v>
+        <v>18.43861616754362</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.49762905729709</v>
+        <v>8.18462949264203</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.038105681890641</v>
+        <v>0.7863625279772808</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.89466292336859</v>
+        <v>11.51119384558568</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8146750787394373</v>
+        <v>0.8051336607450748</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2558685192709938</v>
+        <v>0.268922706971439</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1475495037198283</v>
+        <v>0.0745812050390051</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.10229072126768</v>
+        <v>2.038149295783278</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.4559043530220852</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.490047098587763</v>
+        <v>-1.49004709858776</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4708691183205334</v>
@@ -949,7 +949,7 @@
         <v>0.01588897285737483</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1033951224196721</v>
+        <v>-0.1033951224196719</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.226000247612095</v>
+        <v>5.720665151392041</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.603581454000558</v>
+        <v>-6.271405004579048</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-6.8706403575895</v>
+        <v>-7.136291256713578</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-9.295758544355282</v>
+        <v>-8.836415786343933</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2033227811629017</v>
+        <v>0.1773352433619672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2056127041638008</v>
+        <v>-0.1992365706003363</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2042951776619204</v>
+        <v>-0.2146179098539663</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4675915693244916</v>
+        <v>-0.4393117666051559</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.29111807462941</v>
+        <v>20.48374418591708</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.215973898050855</v>
+        <v>7.514593584890561</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.486243509196678</v>
+        <v>7.070896304722961</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.290515429859774</v>
+        <v>5.245055823964973</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8378673801894058</v>
+        <v>0.8405047965791895</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2947281357942112</v>
+        <v>0.2960990933471443</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3028879737081112</v>
+        <v>0.2886972195965133</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4202515868033699</v>
+        <v>0.5777342520572938</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.703676660966828</v>
+        <v>-7.092560432062829</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.686812276686755</v>
+        <v>-3.988189688484046</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.1719425261001</v>
+        <v>-14.05246200419401</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.098223707129975</v>
+        <v>-3.014984765839935</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2398556474979903</v>
+        <v>-0.21387251070088</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.07011960839336288</v>
+        <v>-0.112989909717502</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4439124350533713</v>
+        <v>-0.4328365068112726</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4044363630586452</v>
+        <v>-0.4021424251742829</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.08286285217195</v>
+        <v>12.00150518322892</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.09784124231892</v>
+        <v>16.20062944286683</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.587510755771595</v>
+        <v>3.216839295814282</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.789193796023912</v>
+        <v>4.798302551853909</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4668575810314534</v>
+        <v>0.5272704481203029</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5951361690987897</v>
+        <v>0.569120901132441</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.11618332141406</v>
+        <v>0.1450690976729877</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.706935198150959</v>
+        <v>1.867181263910875</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.6637330151206</v>
+        <v>3.737438123773094</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.627911318548398</v>
+        <v>5.537283117594809</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.0760888743345</v>
+        <v>-2.130339703303703</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-4.905931519066291</v>
+        <v>-5.100320689386097</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1089933880780138</v>
+        <v>0.1196599880570143</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1327474875625997</v>
+        <v>0.1635708542766227</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.06279771413242478</v>
+        <v>-0.07488655804273256</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3526224346356359</v>
+        <v>-0.3527934507333344</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>19.85180533266539</v>
+        <v>19.99383338055002</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.11073026174136</v>
+        <v>21.83652096773681</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13.88646705003548</v>
+        <v>13.92999255938086</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.000844528344683</v>
+        <v>5.205568386171097</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8041169997922307</v>
+        <v>0.8296643685687627</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8591792443652762</v>
+        <v>0.8683064153325016</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7254518224901044</v>
+        <v>0.7234654092031279</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5743378685672854</v>
+        <v>0.6003788772972204</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>3.300315792826514</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.608184107131907</v>
+        <v>3.608184107131901</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2632103414212563</v>
@@ -1249,7 +1249,7 @@
         <v>0.1223334918980178</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1906545561019743</v>
+        <v>0.190654556101974</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.939021856549354</v>
+        <v>2.245832340024901</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.551704663590704</v>
+        <v>2.52882389111226</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.956490946860467</v>
+        <v>-1.87188205751828</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.132473472851691</v>
+        <v>-1.094528202881537</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.05315052611120311</v>
+        <v>0.06434844719986195</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06560961952641592</v>
+        <v>0.07334081117168725</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.06492242002601069</v>
+        <v>-0.06429199437646443</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.05282426601126302</v>
+        <v>-0.05293312511625844</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.66279534632371</v>
+        <v>13.11429576576504</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.86608622358358</v>
+        <v>13.9345701433328</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.810434185315398</v>
+        <v>8.79681568756809</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.159231830450093</v>
+        <v>8.630223727513219</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4933788302301395</v>
+        <v>0.4720730130210997</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4523320455164573</v>
+        <v>0.4420565474427925</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3662846433738165</v>
+        <v>0.3634192957997935</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5110637262715655</v>
+        <v>0.5341249218110942</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.052624156423671</v>
+        <v>1.144488791769234</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.1785425987555412</v>
+        <v>-0.1498479681186209</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-6.893249011705292</v>
+        <v>-6.912355598937411</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.835323284570258</v>
+        <v>-2.570256436301265</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03479799766246362</v>
+        <v>0.03839485828780928</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.002207940538913972</v>
+        <v>-0.007358447350552569</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2723177323275139</v>
+        <v>-0.2760306540041836</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3762059675160681</v>
+        <v>-0.3511645462270435</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.0387232853449</v>
+        <v>10.97050984671012</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>9.657054057870955</v>
+        <v>10.11212209776355</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.72126655114762</v>
+        <v>1.782872936456506</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.599669162957904</v>
+        <v>2.571163191649886</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4234187053741949</v>
+        <v>0.4214885585008699</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3419776312218486</v>
+        <v>0.3513096180424318</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08196344356789088</v>
+        <v>0.08133634839873166</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6107467512137095</v>
+        <v>0.5865491277437376</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.768666929451219</v>
+        <v>6.119444654684195</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.397675241654708</v>
+        <v>3.445521672649242</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6551070360245608</v>
+        <v>-0.6696835954404019</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4151961847494599</v>
+        <v>0.4682264909338003</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.193870582212112</v>
+        <v>0.2060702791700034</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09725913416171456</v>
+        <v>0.10014045496428</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.02526916721508067</v>
+        <v>-0.02491955478582089</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.03339594364025417</v>
+        <v>0.03424000750915685</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.78018749237298</v>
+        <v>10.65198684126559</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.33080679936058</v>
+        <v>8.438586119832783</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.585003771586143</v>
+        <v>3.63644828901006</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.045644032883298</v>
+        <v>3.89156258294265</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3898549746126782</v>
+        <v>0.3850597884228764</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2582278498851703</v>
+        <v>0.2693080392787512</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.14900886423905</v>
+        <v>0.1496076234878124</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.390264051887879</v>
+        <v>0.3717504878675192</v>
       </c>
     </row>
     <row r="31">
